--- a/csv/role/roleconfig.xlsx
+++ b/csv/role/roleconfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -22,10 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出生点y坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##出生地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,11 +50,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##新角色初始任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1054;1055;1056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.37,88.3243</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -114,12 +115,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -161,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,61 +409,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>297</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -467,15 +466,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>300</v>
       </c>
@@ -483,16 +482,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>1054</v>
-      </c>
-      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
